--- a/artfynd/A 58278-2021.xlsx
+++ b/artfynd/A 58278-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7142332</v>
+        <v>80845784</v>
       </c>
       <c r="B2" t="n">
-        <v>98536</v>
+        <v>90676</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,52 +692,50 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1853</v>
+        <v>5966</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Fåssjödal, vid jaktskyttebanan, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>507310.5745458481</v>
+        <v>507477.0294741492</v>
       </c>
       <c r="R2" t="n">
-        <v>6894432.726952317</v>
+        <v>6894666.128927187</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -761,7 +759,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2003-05-07</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -771,7 +769,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2003-05-07</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -779,11 +777,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Vid vägen och skjutbanan. Medobservatör Per Simonsson</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -792,26 +785,31 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>35-årig sandtallskog</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Olle Hedvall</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Olle Hedvall</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61608620</v>
+        <v>80845797</v>
       </c>
       <c r="B3" t="n">
-        <v>98536</v>
+        <v>90665</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,47 +818,47 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1853</v>
+        <v>4366</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Fåssjödal / 700 m SV /, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>507322.104312678</v>
+        <v>507503.1444775875</v>
       </c>
       <c r="R3" t="n">
-        <v>6894076.860792432</v>
+        <v>6894699.810189986</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -887,7 +885,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2005-05-23</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -897,7 +895,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2005-05-23</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -905,11 +903,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Detalj. 30 ex inom 1,5 m2. 1 avbetad, troligen hare.</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -918,26 +911,36 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>ca 50-årig sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>gammal brink i f.d. grustag</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61603563</v>
+        <v>80845780</v>
       </c>
       <c r="B4" t="n">
-        <v>98536</v>
+        <v>90634</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -946,47 +949,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1853</v>
+        <v>6055</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Spadskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Stereopsis vitellina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(S.Lundell) D.A.Reid</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Fåssjödal / 600 m SV /, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>507428.3303634566</v>
+        <v>507554.771288391</v>
       </c>
       <c r="R4" t="n">
-        <v>6894056.541744754</v>
+        <v>6894618.201644666</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1013,7 +1016,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1023,7 +1026,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1031,11 +1034,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Detalj. 27 ex inom 3x3 m.</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1044,26 +1042,36 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>35-årig, lavrik sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>under murken tallågerest med sorkhål</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>61603564</v>
+        <v>80845778</v>
       </c>
       <c r="B5" t="n">
-        <v>98536</v>
+        <v>90634</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1072,47 +1080,47 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1853</v>
+        <v>6055</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Spadskinn</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Stereopsis vitellina</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(S.Lundell) D.A.Reid</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Fåssjödal / 600 m SV /, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>507433.4911580504</v>
+        <v>507567.8244627291</v>
       </c>
       <c r="R5" t="n">
-        <v>6894049.546962359</v>
+        <v>6894636.910808607</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1139,7 +1147,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1149,7 +1157,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1157,11 +1165,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Detalj. 15 ex inom 6 m2.</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1170,26 +1173,36 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>35-årig, lavrik sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>under äldre tallåga</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61608619</v>
+        <v>80845735</v>
       </c>
       <c r="B6" t="n">
-        <v>98536</v>
+        <v>90665</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1198,50 +1211,50 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1853</v>
+        <v>4366</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Fåssjödal / 700 m SV /, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>507334.2761449886</v>
+        <v>507478.0210636117</v>
       </c>
       <c r="R6" t="n">
-        <v>6894072.216497498</v>
+        <v>6894429.824868524</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1265,7 +1278,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2005-05-23</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1275,7 +1288,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2005-05-23</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1283,11 +1296,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Detalj. 161 ex inom 1000 m2. 2 avbetade, troligen hare.</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1296,26 +1304,31 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>vägskärning med lavrik, 45-årig sandtallskog</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>61615385</v>
+        <v>80845792</v>
       </c>
       <c r="B7" t="n">
-        <v>98536</v>
+        <v>90665</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1324,47 +1337,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1853</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Väg 314: Fåssjödals jaktskyttebana, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>507292.8087301891</v>
+        <v>507561.1104862974</v>
       </c>
       <c r="R7" t="n">
-        <v>6894429.419321662</v>
+        <v>6894711.147330103</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1391,7 +1404,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2010-05-11</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1401,7 +1414,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2010-05-11</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1409,11 +1422,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Detalj. 5 rosetter varav 3 bl. inom 1 m2. Ny dellokal ca 15 m söder om tidigare känd.</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1422,26 +1430,31 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>tät, 40-årig sandtallskog</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Bengt Petterson, Bengt Ålkils</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61615383</v>
+        <v>80845795</v>
       </c>
       <c r="B8" t="n">
-        <v>98536</v>
+        <v>90653</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1450,47 +1463,47 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1853</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Väg 314: Fåssjödals jaktskyttebana, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>507306.3651785627</v>
+        <v>507589.8989173259</v>
       </c>
       <c r="R8" t="n">
-        <v>6894432.717831368</v>
+        <v>6894803.206977942</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1517,7 +1530,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2010-05-11</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1527,7 +1540,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2010-05-11</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1535,11 +1548,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Detalj. 6 rosetter varav 4 bl. inom 1 m2.</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
@@ -1548,26 +1556,31 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>40-årig sandtallskog i f.d. grustag</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Bengt Petterson, Bengt Ålkils</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>71077554</v>
+        <v>80845774</v>
       </c>
       <c r="B9" t="n">
-        <v>98536</v>
+        <v>90669</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1576,52 +1589,50 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1853</v>
+        <v>2059</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Vägkant-4, Fåssjödal, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>507250.951952296</v>
+        <v>507643.1324513814</v>
       </c>
       <c r="R9" t="n">
-        <v>6894319.109469669</v>
+        <v>6894631.943669757</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1645,27 +1656,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2018-05-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2018-05-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:40</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>6 plantor, varav 4 blommor. Hårt trängd av ljung, lingon, gran-och tallplant.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1676,26 +1682,31 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>35-årig sandtallskog</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>71077425</v>
+        <v>80845526</v>
       </c>
       <c r="B10" t="n">
-        <v>98536</v>
+        <v>90639</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1704,49 +1715,47 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1853</v>
+        <v>3100</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Vägkant-1, söder skjutbanan, Fåssjödal, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>507318.9395697718</v>
+        <v>507459.7792062955</v>
       </c>
       <c r="R10" t="n">
-        <v>6894457.497286118</v>
+        <v>6894641.807051506</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1773,27 +1782,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2018-05-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2018-05-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>3 plantor, en med två blommor. Hårt trängd av bl.a. husmossa, ljung, lingon och tall. Beböver röjas och brännas.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1804,26 +1808,36 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>35-årig sandtallskog med lav</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>i sandväg</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>71077531</v>
+        <v>80845772</v>
       </c>
       <c r="B11" t="n">
-        <v>98536</v>
+        <v>90665</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1832,52 +1846,50 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1853</v>
+        <v>4366</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Vägkant-3, Fåssjödal, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>507265.8506841396</v>
+        <v>507661.8279765768</v>
       </c>
       <c r="R11" t="n">
-        <v>6894350.900091409</v>
+        <v>6894637.12305214</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1901,27 +1913,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2018-05-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2018-05-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:40</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>23 plantor, varav 6 blommande. Hårt trängd av ljung, lingon , gran- och tallplant.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1932,26 +1939,31 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>35-årig sandtallskog</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>71077497</v>
+        <v>80845730</v>
       </c>
       <c r="B12" t="n">
-        <v>98536</v>
+        <v>90653</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1960,49 +1972,47 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1853</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Vägkant-2, söder skjutbanan, Fåssjödal, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>507278.4196325307</v>
+        <v>507494.8668497613</v>
       </c>
       <c r="R12" t="n">
-        <v>6894378.482170939</v>
+        <v>6894426.126059267</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2029,27 +2039,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2018-05-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2018-05-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:40</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>4 plantor, 3 med en blomma var. Hårt trängd av överig vegetation.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2060,78 +2065,83 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>35-årig sandtallskog</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>57863956</v>
+        <v>80845781</v>
       </c>
       <c r="B13" t="n">
-        <v>98536</v>
+        <v>88911</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1853</v>
+        <v>256703</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Väg 314: Fåssjö jaktskyttebana / S /, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>507285.8667548271</v>
+        <v>507549.1371558572</v>
       </c>
       <c r="R13" t="n">
-        <v>6894395.311347728</v>
+        <v>6894627.995988859</v>
       </c>
       <c r="S13" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2153,14 +2163,9 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>Z-Här-0142</t>
-        </is>
-      </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2003-05-07</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2170,7 +2175,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2003-05-07</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2178,11 +2183,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Vid vägen och skjutbanan. Medobservatör Per Simonsson. (kopia in i floraväkteri)</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2191,79 +2191,85 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>35-årig sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>kant av sanväg, lav, väggmossa</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Olle Hedvall</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>504186</v>
+        <v>80845777</v>
       </c>
       <c r="B14" t="n">
-        <v>98536</v>
+        <v>90647</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1853</v>
+        <v>4362</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Fåssjödal / 500 m V /, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>507452.7896036927</v>
+        <v>507608.051192873</v>
       </c>
       <c r="R14" t="n">
-        <v>6894418.56041079</v>
+        <v>6894634.199334384</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2288,14 +2294,9 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>Z-Här-0651</t>
-        </is>
-      </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2305,7 +2306,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2313,11 +2314,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>14 ex veg. inom 2x5 m.</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2326,30 +2322,36 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>35-årig, lavrik sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>sandväg</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Z Län Floraväktarna</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>78233133</v>
+        <v>80845779</v>
       </c>
       <c r="B15" t="n">
-        <v>98536</v>
+        <v>90647</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2358,57 +2360,50 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1853</v>
+        <v>4362</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>observerad</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Fåssjl, dödisgrop 1, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>507332.8911480352</v>
+        <v>507590.875278589</v>
       </c>
       <c r="R15" t="n">
-        <v>6894063.80614421</v>
+        <v>6894577.186568071</v>
       </c>
       <c r="S15" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2432,27 +2427,22 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Endast 1 blomma. Plantorna är hart tränga av renlavar, ljung och enbuskar. De flesta av tallplanten rycktes I fjol sommar av SCA Skog.Dödisgropen är planerad att brännas nu I sommar.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2461,29 +2451,38 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>35-årig, lavrik sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>lav, lingon, ljung</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>78233175</v>
+        <v>80845785</v>
       </c>
       <c r="B16" t="n">
-        <v>98536</v>
+        <v>90639</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2492,57 +2491,50 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1853</v>
+        <v>3100</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>observerad</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Fåssjö, Dödisgrop 2, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>507410.0928670231</v>
+        <v>507469.1038181394</v>
       </c>
       <c r="R16" t="n">
-        <v>6894054.166252391</v>
+        <v>6894654.903536456</v>
       </c>
       <c r="S16" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2566,27 +2558,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Ingen planta blommade. Plantorna är hart tränga av renlavar, ljung och enbuskar. De flesta av tallplanten rycktes I fjol sommar av SCA Skog.Dödisgropen är planerad att brännas nu I sommar.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2595,29 +2582,33 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>35-årig sandtallskog</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80845722</v>
+        <v>80845793</v>
       </c>
       <c r="B17" t="n">
-        <v>90639</v>
+        <v>90676</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2630,21 +2621,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3100</v>
+        <v>5966</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2663,10 +2654,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>507436.8635695092</v>
+        <v>507534.0326348151</v>
       </c>
       <c r="R17" t="n">
-        <v>6894217.230953031</v>
+        <v>6894690.072298975</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2722,7 +2713,12 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>tät, 25-årig, lavrik åstallskog</t>
+          <t>40-årig, tät sandtallskog i sluttning mot dödisgrop</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>lav och lingon</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2740,10 +2736,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>80845784</v>
+        <v>80845788</v>
       </c>
       <c r="B18" t="n">
-        <v>90676</v>
+        <v>90639</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2756,21 +2752,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5966</v>
+        <v>3100</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2789,10 +2785,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>507477.0294741492</v>
+        <v>507514.9611058119</v>
       </c>
       <c r="R18" t="n">
-        <v>6894666.128927187</v>
+        <v>6894643.797538802</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2849,6 +2845,11 @@
       <c r="AI18" t="inlineStr">
         <is>
           <t>35-årig sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>sandväg</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2866,10 +2867,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>80845748</v>
+        <v>80845789</v>
       </c>
       <c r="B19" t="n">
-        <v>90641</v>
+        <v>88911</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2878,25 +2879,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>149</v>
+        <v>256703</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2915,10 +2916,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>507551.0443940496</v>
+        <v>507527.8924442182</v>
       </c>
       <c r="R19" t="n">
-        <v>6893984.883687972</v>
+        <v>6894717.143831784</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2974,12 +2975,12 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>35-årig, lavrik sandtallskog</t>
+          <t>40-årig sandtallskog</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>sandväg</t>
+          <t>äldre körväg med lav</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2997,10 +2998,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>80845740</v>
+        <v>80845798</v>
       </c>
       <c r="B20" t="n">
-        <v>90639</v>
+        <v>90641</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3009,25 +3010,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3100</v>
+        <v>149</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3046,10 +3047,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>507318.9789796181</v>
+        <v>507469.0148760626</v>
       </c>
       <c r="R20" t="n">
-        <v>6894008.193531829</v>
+        <v>6894695.064554572</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3105,12 +3106,12 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>lavrik, 30-årig sandtallskog</t>
+          <t>kant av ca 60-årig sandtallskog</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>kant av sandväg</t>
+          <t>grusig vägkant</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3128,10 +3129,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>80845797</v>
+        <v>80845775</v>
       </c>
       <c r="B21" t="n">
-        <v>90665</v>
+        <v>90130</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3140,25 +3141,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4366</v>
+        <v>1958</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Lammticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Albatrellus subrubescens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Murrill) Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3177,10 +3178,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>507503.1444775875</v>
+        <v>507627.2218304575</v>
       </c>
       <c r="R21" t="n">
-        <v>6894699.810189986</v>
+        <v>6894636.110620191</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3236,12 +3237,12 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>ca 50-årig sandtallskog</t>
+          <t>35-årig sandtallskog</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>gammal brink i f.d. grustag</t>
+          <t>sandväg</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3259,10 +3260,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>80845733</v>
+        <v>80845782</v>
       </c>
       <c r="B22" t="n">
-        <v>90665</v>
+        <v>90676</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3271,25 +3272,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4366</v>
+        <v>5966</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3308,10 +3309,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>507320.2104634023</v>
+        <v>507492.8868527928</v>
       </c>
       <c r="R22" t="n">
-        <v>6894302.912628792</v>
+        <v>6894685.77773181</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3367,7 +3368,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>30-årig sandtallskog</t>
+          <t>35-årig sandtallskog</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3385,10 +3386,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>80845780</v>
+        <v>80845790</v>
       </c>
       <c r="B23" t="n">
-        <v>90634</v>
+        <v>90669</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3397,25 +3398,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6055</v>
+        <v>2059</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spadskinn</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Stereopsis vitellina</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(S.Lundell) D.A.Reid</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -3434,10 +3435,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>507554.771288391</v>
+        <v>507540.9652220882</v>
       </c>
       <c r="R23" t="n">
-        <v>6894618.201644666</v>
+        <v>6894726.979709957</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3493,12 +3494,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>35-årig, lavrik sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>under murken tallågerest med sorkhål</t>
+          <t>40-årig sandtallskog</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3516,10 +3512,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>80845778</v>
+        <v>80845525</v>
       </c>
       <c r="B24" t="n">
-        <v>90634</v>
+        <v>90647</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3528,25 +3524,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6055</v>
+        <v>4362</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spadskinn</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Stereopsis vitellina</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(S.Lundell) D.A.Reid</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -3565,10 +3561,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>507567.8244627291</v>
+        <v>507451.8193854644</v>
       </c>
       <c r="R24" t="n">
-        <v>6894636.910808607</v>
+        <v>6894645.992411294</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3624,12 +3620,12 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>35-årig, lavrik sandtallskog</t>
+          <t>35-årig sandtallskog</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>under äldre tallåga</t>
+          <t>sandväg</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3647,7 +3643,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>80845735</v>
+        <v>80845786</v>
       </c>
       <c r="B25" t="n">
         <v>90665</v>
@@ -3696,10 +3692,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>507478.0210636117</v>
+        <v>507485.9536536723</v>
       </c>
       <c r="R25" t="n">
-        <v>6894429.824868524</v>
+        <v>6894648.869971829</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3755,7 +3751,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>vägskärning med lavrik, 45-årig sandtallskog</t>
+          <t>35-årig sandtallskog</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3773,10 +3769,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>80845792</v>
+        <v>7142332</v>
       </c>
       <c r="B26" t="n">
-        <v>90665</v>
+        <v>98536</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3785,50 +3781,52 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4366</v>
+        <v>1853</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal, vid jaktskyttebanan, Hls</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>507561.1104862974</v>
+        <v>507310.5745458481</v>
       </c>
       <c r="R26" t="n">
-        <v>6894711.147330103</v>
+        <v>6894432.726952317</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3852,7 +3850,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2003-05-07</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3862,7 +3860,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2003-05-07</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3870,6 +3868,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Vid vägen och skjutbanan. Medobservatör Per Simonsson</t>
+        </is>
+      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
@@ -3878,31 +3881,26 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>tät, 40-årig sandtallskog</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Olle Hedvall</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Olle Hedvall</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>80845738</v>
+        <v>61608620</v>
       </c>
       <c r="B27" t="n">
-        <v>90669</v>
+        <v>98536</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3911,47 +3909,47 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2059</v>
+        <v>1853</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal / 700 m SV /, Hls</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>507318.9789796181</v>
+        <v>507322.104312678</v>
       </c>
       <c r="R27" t="n">
-        <v>6894008.193531829</v>
+        <v>6894076.860792432</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3978,7 +3976,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-23</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3988,7 +3986,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-23</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3996,6 +3994,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Detalj. 30 ex inom 1,5 m2. 1 avbetad, troligen hare.</t>
+        </is>
+      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
@@ -4004,31 +4007,26 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>lavrik, 30-årig sandtallskog</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Hanna Wallén</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>80845737</v>
+        <v>61603563</v>
       </c>
       <c r="B28" t="n">
-        <v>90676</v>
+        <v>98536</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4037,47 +4035,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5966</v>
+        <v>1853</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal / 600 m SV /, Hls</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>507291.8101661553</v>
+        <v>507428.3303634566</v>
       </c>
       <c r="R28" t="n">
-        <v>6894025.883796412</v>
+        <v>6894056.541744754</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4104,7 +4102,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -4114,7 +4112,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -4122,6 +4120,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Detalj. 27 ex inom 3x3 m.</t>
+        </is>
+      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
@@ -4130,31 +4133,26 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AI28" t="inlineStr">
-        <is>
-          <t>lavrik, 30-årig sandtallskog</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Hanna Wallén</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>80845795</v>
+        <v>61603564</v>
       </c>
       <c r="B29" t="n">
-        <v>90653</v>
+        <v>98536</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4163,47 +4161,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4364</v>
+        <v>1853</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal / 600 m SV /, Hls</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>507589.8989173259</v>
+        <v>507433.4911580504</v>
       </c>
       <c r="R29" t="n">
-        <v>6894803.206977942</v>
+        <v>6894049.546962359</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4230,7 +4228,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4240,7 +4238,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4248,6 +4246,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Detalj. 15 ex inom 6 m2.</t>
+        </is>
+      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
@@ -4256,31 +4259,26 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
-      </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>40-årig sandtallskog i f.d. grustag</t>
-        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Hanna Wallén</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>80845774</v>
+        <v>61608619</v>
       </c>
       <c r="B30" t="n">
-        <v>90669</v>
+        <v>98536</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4289,50 +4287,50 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2059</v>
+        <v>1853</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>161</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal / 700 m SV /, Hls</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>507643.1324513814</v>
+        <v>507334.2761449886</v>
       </c>
       <c r="R30" t="n">
-        <v>6894631.943669757</v>
+        <v>6894072.216497498</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4356,7 +4354,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-23</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4366,7 +4364,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-23</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4374,6 +4372,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Detalj. 161 ex inom 1000 m2. 2 avbetade, troligen hare.</t>
+        </is>
+      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
@@ -4382,31 +4385,26 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>35-årig sandtallskog</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Hanna Wallén</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>80845742</v>
+        <v>61615385</v>
       </c>
       <c r="B31" t="n">
-        <v>90639</v>
+        <v>98536</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4415,47 +4413,47 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3100</v>
+        <v>1853</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Väg 314: Fåssjödals jaktskyttebana, Hls</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>507430.8574413726</v>
+        <v>507292.8087301891</v>
       </c>
       <c r="R31" t="n">
-        <v>6893971.071281608</v>
+        <v>6894429.419321662</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4482,7 +4480,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2010-05-11</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4492,7 +4490,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2010-05-11</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4500,6 +4498,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Detalj. 5 rosetter varav 3 bl. inom 1 m2. Ny dellokal ca 15 m söder om tidigare känd.</t>
+        </is>
+      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
@@ -4508,31 +4511,26 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>35-årig, lavrik sandtallskog</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Bengt Petterson, Bengt Ålkils</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>80845718</v>
+        <v>61615383</v>
       </c>
       <c r="B32" t="n">
-        <v>90653</v>
+        <v>98536</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4541,47 +4539,47 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4364</v>
+        <v>1853</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Väg 314: Fåssjödals jaktskyttebana, Hls</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>507454.9338275347</v>
+        <v>507306.3651785627</v>
       </c>
       <c r="R32" t="n">
-        <v>6894083.223672259</v>
+        <v>6894432.717831368</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4608,7 +4606,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>2010-05-11</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4618,7 +4616,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>2010-05-11</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4626,6 +4624,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Detalj. 6 rosetter varav 4 bl. inom 1 m2.</t>
+        </is>
+      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
@@ -4634,31 +4637,26 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>35-årig tallskog med lavfläckar på ryggås</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Bengt Petterson, Bengt Ålkils</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>80845714</v>
+        <v>71077554</v>
       </c>
       <c r="B33" t="n">
-        <v>90647</v>
+        <v>98536</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4667,50 +4665,52 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4362</v>
+        <v>1853</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Vägkant-4, Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>507198.1909204693</v>
+        <v>507250.951952296</v>
       </c>
       <c r="R33" t="n">
-        <v>6894276.028525586</v>
+        <v>6894319.109469669</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4734,22 +4734,27 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>6 plantor, varav 4 blommor. Hårt trängd av ljung, lingon, gran-och tallplant.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4760,31 +4765,26 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>ca 40-årig tallskog med lav-, al- och björkinslag</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>80845736</v>
+        <v>71077425</v>
       </c>
       <c r="B34" t="n">
-        <v>90676</v>
+        <v>98536</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4793,47 +4793,49 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5966</v>
+        <v>1853</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Vägkant-1, söder skjutbanan, Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>507203.9383271952</v>
+        <v>507318.9395697718</v>
       </c>
       <c r="R34" t="n">
-        <v>6894212.989029211</v>
+        <v>6894457.497286118</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4860,22 +4862,27 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>3 plantor, en med två blommor. Hårt trängd av bl.a. husmossa, ljung, lingon och tall. Beböver röjas och brännas.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4886,31 +4893,26 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>vägskärning med lavrik, 45-årig sandtallskog</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>80845526</v>
+        <v>71077531</v>
       </c>
       <c r="B35" t="n">
-        <v>90639</v>
+        <v>98536</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4919,50 +4921,52 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3100</v>
+        <v>1853</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Vägkant-3, Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>507459.7792062955</v>
+        <v>507265.8506841396</v>
       </c>
       <c r="R35" t="n">
-        <v>6894641.807051506</v>
+        <v>6894350.900091409</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4986,22 +4990,27 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>23 plantor, varav 6 blommande. Hårt trängd av ljung, lingon , gran- och tallplant.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5012,36 +5021,26 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>35-årig sandtallskog med lav</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>i sandväg</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>80845732</v>
+        <v>71077497</v>
       </c>
       <c r="B36" t="n">
-        <v>90647</v>
+        <v>98536</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -5050,47 +5049,49 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4362</v>
+        <v>1853</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Vägkant-2, söder skjutbanan, Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>507405.8021732038</v>
+        <v>507278.4196325307</v>
       </c>
       <c r="R36" t="n">
-        <v>6894304.033549738</v>
+        <v>6894378.482170939</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5117,22 +5118,27 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>4 plantor, 3 med en blomma var. Hårt trängd av överig vegetation.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5143,88 +5149,78 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>35-årig sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>renlav, väggmossa, lingon</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>80845772</v>
+        <v>57863956</v>
       </c>
       <c r="B37" t="n">
-        <v>90665</v>
+        <v>98536</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4366</v>
+        <v>1853</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Väg 314: Fåssjö jaktskyttebana / S /, Hls</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>507661.8279765768</v>
+        <v>507285.8667548271</v>
       </c>
       <c r="R37" t="n">
-        <v>6894637.12305214</v>
+        <v>6894395.311347728</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5246,9 +5242,14 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Z-Här-0142</t>
+        </is>
+      </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2003-05-07</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -5258,7 +5259,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2003-05-07</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -5266,6 +5267,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Vid vägen och skjutbanan. Medobservatör Per Simonsson. (kopia in i floraväkteri)</t>
+        </is>
+      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
@@ -5274,80 +5280,79 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>35-årig sandtallskog</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
-        </is>
-      </c>
-      <c r="AY37" t="inlineStr"/>
+          <t>Olle Hedvall</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>80845730</v>
+        <v>504186</v>
       </c>
       <c r="B38" t="n">
-        <v>90653</v>
+        <v>98536</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4364</v>
+        <v>1853</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal / 500 m V /, Hls</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>507494.8668497613</v>
+        <v>507452.7896036927</v>
       </c>
       <c r="R38" t="n">
-        <v>6894426.126059267</v>
+        <v>6894418.56041079</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5372,9 +5377,14 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Z-Här-0651</t>
+        </is>
+      </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -5384,7 +5394,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -5392,6 +5402,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>14 ex veg. inom 2x5 m.</t>
+        </is>
+      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
@@ -5400,31 +5415,30 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AI38" t="inlineStr">
-        <is>
-          <t>35-årig sandtallskog</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Z Län Floraväktarna</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
-        </is>
-      </c>
-      <c r="AY38" t="inlineStr"/>
+          <t>Hanna Wallén</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>80845745</v>
+        <v>78233133</v>
       </c>
       <c r="B39" t="n">
-        <v>90639</v>
+        <v>98536</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5433,50 +5447,57 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3100</v>
+        <v>1853</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>72</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>observerad</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjl, dödisgrop 1, Hls</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>507512.227838248</v>
+        <v>507332.8911480352</v>
       </c>
       <c r="R39" t="n">
-        <v>6893981.06033429</v>
+        <v>6894063.80614421</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5500,22 +5521,27 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Endast 1 blomma. Plantorna är hart tränga av renlavar, ljung och enbuskar. De flesta av tallplanten rycktes I fjol sommar av SCA Skog.Dödisgropen är planerad att brännas nu I sommar.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5524,33 +5550,29 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>35-årig, lavrik sandtallskog</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>80845781</v>
+        <v>78233175</v>
       </c>
       <c r="B40" t="n">
-        <v>88911</v>
+        <v>98536</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5559,50 +5581,57 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>256703</v>
+        <v>1853</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>observerad</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjö, Dödisgrop 2, Hls</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>507549.1371558572</v>
+        <v>507410.0928670231</v>
       </c>
       <c r="R40" t="n">
-        <v>6894627.995988859</v>
+        <v>6894054.166252391</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5626,22 +5655,27 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Ingen planta blommade. Plantorna är hart tränga av renlavar, ljung och enbuskar. De flesta av tallplanten rycktes I fjol sommar av SCA Skog.Dödisgropen är planerad att brännas nu I sommar.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5650,38 +5684,29 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
-      </c>
-      <c r="AI40" t="inlineStr">
-        <is>
-          <t>35-årig sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>kant av sanväg, lav, väggmossa</t>
-        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>80845777</v>
+        <v>80845722</v>
       </c>
       <c r="B41" t="n">
-        <v>90647</v>
+        <v>90639</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5694,21 +5719,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -5727,10 +5752,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>507608.051192873</v>
+        <v>507436.8635695092</v>
       </c>
       <c r="R41" t="n">
-        <v>6894634.199334384</v>
+        <v>6894217.230953031</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5786,12 +5811,7 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>35-årig, lavrik sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>sandväg</t>
+          <t>tät, 25-årig, lavrik åstallskog</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5809,10 +5829,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>80845779</v>
+        <v>80845748</v>
       </c>
       <c r="B42" t="n">
-        <v>90647</v>
+        <v>90641</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5821,25 +5841,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4362</v>
+        <v>149</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -5858,10 +5878,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>507590.875278589</v>
+        <v>507551.0443940496</v>
       </c>
       <c r="R42" t="n">
-        <v>6894577.186568071</v>
+        <v>6893984.883687972</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5922,7 +5942,7 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>lav, lingon, ljung</t>
+          <t>sandväg</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5940,7 +5960,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>80845785</v>
+        <v>80845740</v>
       </c>
       <c r="B43" t="n">
         <v>90639</v>
@@ -5989,10 +6009,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>507469.1038181394</v>
+        <v>507318.9789796181</v>
       </c>
       <c r="R43" t="n">
-        <v>6894654.903536456</v>
+        <v>6894008.193531829</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6048,7 +6068,12 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>35-årig sandtallskog</t>
+          <t>lavrik, 30-årig sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>kant av sandväg</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6066,10 +6091,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>80845747</v>
+        <v>80845733</v>
       </c>
       <c r="B44" t="n">
-        <v>90647</v>
+        <v>90665</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -6078,25 +6103,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -6115,10 +6140,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>507542.1651258843</v>
+        <v>507320.2104634023</v>
       </c>
       <c r="R44" t="n">
-        <v>6893981.127133002</v>
+        <v>6894302.912628792</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6174,7 +6199,7 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>35-årig, lavrik sandtallskog</t>
+          <t>30-årig sandtallskog</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6192,10 +6217,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>80845793</v>
+        <v>80845738</v>
       </c>
       <c r="B45" t="n">
-        <v>90676</v>
+        <v>90669</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6208,21 +6233,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5966</v>
+        <v>2059</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -6241,10 +6266,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>507534.0326348151</v>
+        <v>507318.9789796181</v>
       </c>
       <c r="R45" t="n">
-        <v>6894690.072298975</v>
+        <v>6894008.193531829</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6300,12 +6325,7 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>40-årig, tät sandtallskog i sluttning mot dödisgrop</t>
-        </is>
-      </c>
-      <c r="AO45" t="inlineStr">
-        <is>
-          <t>lav och lingon</t>
+          <t>lavrik, 30-årig sandtallskog</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6323,10 +6343,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>80845752</v>
+        <v>80845737</v>
       </c>
       <c r="B46" t="n">
-        <v>90639</v>
+        <v>90676</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6339,21 +6359,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3100</v>
+        <v>5966</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -6372,10 +6392,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>507623.0154712492</v>
+        <v>507291.8101661553</v>
       </c>
       <c r="R46" t="n">
-        <v>6894014.004775294</v>
+        <v>6894025.883796412</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6431,7 +6451,7 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>30-årig lingontallskog i åssluttning</t>
+          <t>lavrik, 30-årig sandtallskog</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6449,10 +6469,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>80845744</v>
+        <v>80845742</v>
       </c>
       <c r="B47" t="n">
-        <v>90665</v>
+        <v>90639</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6461,25 +6481,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4366</v>
+        <v>3100</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -6498,10 +6518,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>507493.9910289954</v>
+        <v>507430.8574413726</v>
       </c>
       <c r="R47" t="n">
-        <v>6893978.217251596</v>
+        <v>6893971.071281608</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6575,7 +6595,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>80845720</v>
+        <v>80845718</v>
       </c>
       <c r="B48" t="n">
         <v>90653</v>
@@ -6624,10 +6644,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>507402.2100072518</v>
+        <v>507454.9338275347</v>
       </c>
       <c r="R48" t="n">
-        <v>6894235.836839776</v>
+        <v>6894083.223672259</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6654,7 +6674,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -6664,7 +6684,7 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -6683,12 +6703,7 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>35-årig sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO48" t="inlineStr">
-        <is>
-          <t>vägkant</t>
+          <t>35-årig tallskog med lavfläckar på ryggås</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6706,10 +6721,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>80845788</v>
+        <v>80845714</v>
       </c>
       <c r="B49" t="n">
-        <v>90639</v>
+        <v>90647</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6722,21 +6737,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -6755,10 +6770,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>507514.9611058119</v>
+        <v>507198.1909204693</v>
       </c>
       <c r="R49" t="n">
-        <v>6894643.797538802</v>
+        <v>6894276.028525586</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6785,7 +6800,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -6795,7 +6810,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -6814,12 +6829,7 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>35-årig sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO49" t="inlineStr">
-        <is>
-          <t>sandväg</t>
+          <t>ca 40-årig tallskog med lav-, al- och björkinslag</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6837,10 +6847,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>80845789</v>
+        <v>80845736</v>
       </c>
       <c r="B50" t="n">
-        <v>88911</v>
+        <v>90676</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6849,25 +6859,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>256703</v>
+        <v>5966</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6886,10 +6896,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>507527.8924442182</v>
+        <v>507203.9383271952</v>
       </c>
       <c r="R50" t="n">
-        <v>6894717.143831784</v>
+        <v>6894212.989029211</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6945,12 +6955,7 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>40-årig sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO50" t="inlineStr">
-        <is>
-          <t>äldre körväg med lav</t>
+          <t>vägskärning med lavrik, 45-årig sandtallskog</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6968,10 +6973,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>80845798</v>
+        <v>80845732</v>
       </c>
       <c r="B51" t="n">
-        <v>90641</v>
+        <v>90647</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6980,25 +6985,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>149</v>
+        <v>4362</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -7017,10 +7022,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>507469.0148760626</v>
+        <v>507405.8021732038</v>
       </c>
       <c r="R51" t="n">
-        <v>6894695.064554572</v>
+        <v>6894304.033549738</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -7076,12 +7081,12 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>kant av ca 60-årig sandtallskog</t>
+          <t>35-årig sandtallskog</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>grusig vägkant</t>
+          <t>renlav, väggmossa, lingon</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -7099,10 +7104,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>80845717</v>
+        <v>80845745</v>
       </c>
       <c r="B52" t="n">
-        <v>90676</v>
+        <v>90639</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -7115,21 +7120,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5966</v>
+        <v>3100</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -7148,10 +7153,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>507249.1101581561</v>
+        <v>507512.227838248</v>
       </c>
       <c r="R52" t="n">
-        <v>6894087.912884205</v>
+        <v>6893981.06033429</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -7178,7 +7183,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -7188,7 +7193,7 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -7207,12 +7212,7 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>35-årig sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO52" t="inlineStr">
-        <is>
-          <t>sandvägskant</t>
+          <t>35-årig, lavrik sandtallskog</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -7230,10 +7230,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>80845775</v>
+        <v>80845747</v>
       </c>
       <c r="B53" t="n">
-        <v>90130</v>
+        <v>90647</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -7242,25 +7242,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1958</v>
+        <v>4362</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lammticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Albatrellus subrubescens</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Murrill) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -7279,10 +7279,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>507627.2218304575</v>
+        <v>507542.1651258843</v>
       </c>
       <c r="R53" t="n">
-        <v>6894636.110620191</v>
+        <v>6893981.127133002</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -7338,12 +7338,7 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>35-årig sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO53" t="inlineStr">
-        <is>
-          <t>sandväg</t>
+          <t>35-årig, lavrik sandtallskog</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -7361,10 +7356,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>80845731</v>
+        <v>80845752</v>
       </c>
       <c r="B54" t="n">
-        <v>90665</v>
+        <v>90639</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7373,25 +7368,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4366</v>
+        <v>3100</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -7410,10 +7405,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>507509.9208651773</v>
+        <v>507623.0154712492</v>
       </c>
       <c r="R54" t="n">
-        <v>6894386.929195298</v>
+        <v>6894014.004775294</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7469,7 +7464,7 @@
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>35-årig sandtallskog</t>
+          <t>30-årig lingontallskog i åssluttning</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -7487,10 +7482,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>80845746</v>
+        <v>80845744</v>
       </c>
       <c r="B55" t="n">
-        <v>90669</v>
+        <v>90665</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7499,25 +7494,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -7536,10 +7531,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>507551.0443940496</v>
+        <v>507493.9910289954</v>
       </c>
       <c r="R55" t="n">
-        <v>6893984.883687972</v>
+        <v>6893978.217251596</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7613,10 +7608,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>80845782</v>
+        <v>80845720</v>
       </c>
       <c r="B56" t="n">
-        <v>90676</v>
+        <v>90653</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7625,25 +7620,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -7662,10 +7657,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>507492.8868527928</v>
+        <v>507402.2100072518</v>
       </c>
       <c r="R56" t="n">
-        <v>6894685.77773181</v>
+        <v>6894235.836839776</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7722,6 +7717,11 @@
       <c r="AI56" t="inlineStr">
         <is>
           <t>35-årig sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO56" t="inlineStr">
+        <is>
+          <t>vägkant</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7739,10 +7739,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>80845751</v>
+        <v>80845717</v>
       </c>
       <c r="B57" t="n">
-        <v>90653</v>
+        <v>90676</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7751,25 +7751,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -7788,10 +7788,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>507623.0154712492</v>
+        <v>507249.1101581561</v>
       </c>
       <c r="R57" t="n">
-        <v>6894014.004775294</v>
+        <v>6894087.912884205</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -7847,7 +7847,12 @@
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>30-årig lingontallskog i åssluttning</t>
+          <t>35-årig sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>sandvägskant</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7865,10 +7870,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>80845790</v>
+        <v>80845731</v>
       </c>
       <c r="B58" t="n">
-        <v>90669</v>
+        <v>90665</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7877,25 +7882,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -7914,10 +7919,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>507540.9652220882</v>
+        <v>507509.9208651773</v>
       </c>
       <c r="R58" t="n">
-        <v>6894726.979709957</v>
+        <v>6894386.929195298</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7973,7 +7978,7 @@
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>40-årig sandtallskog</t>
+          <t>35-årig sandtallskog</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -7991,10 +7996,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>80845734</v>
+        <v>80845746</v>
       </c>
       <c r="B59" t="n">
-        <v>90647</v>
+        <v>90669</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -8007,21 +8012,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -8040,10 +8045,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>507335.1451781774</v>
+        <v>507551.0443940496</v>
       </c>
       <c r="R59" t="n">
-        <v>6894317.890388673</v>
+        <v>6893984.883687972</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -8099,12 +8104,7 @@
       </c>
       <c r="AI59" t="inlineStr">
         <is>
-          <t>30-årig sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO59" t="inlineStr">
-        <is>
-          <t>fönsterlav, lingon</t>
+          <t>35-årig, lavrik sandtallskog</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -8122,10 +8122,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>80845525</v>
+        <v>80845751</v>
       </c>
       <c r="B60" t="n">
-        <v>90647</v>
+        <v>90653</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -8134,25 +8134,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -8171,10 +8171,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>507451.8193854644</v>
+        <v>507623.0154712492</v>
       </c>
       <c r="R60" t="n">
-        <v>6894645.992411294</v>
+        <v>6894014.004775294</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -8230,12 +8230,7 @@
       </c>
       <c r="AI60" t="inlineStr">
         <is>
-          <t>35-årig sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO60" t="inlineStr">
-        <is>
-          <t>sandväg</t>
+          <t>30-årig lingontallskog i åssluttning</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -8253,10 +8248,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>80845786</v>
+        <v>80845734</v>
       </c>
       <c r="B61" t="n">
-        <v>90665</v>
+        <v>90647</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -8265,25 +8260,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -8302,10 +8297,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>507485.9536536723</v>
+        <v>507335.1451781774</v>
       </c>
       <c r="R61" t="n">
-        <v>6894648.869971829</v>
+        <v>6894317.890388673</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -8361,7 +8356,12 @@
       </c>
       <c r="AI61" t="inlineStr">
         <is>
-          <t>35-årig sandtallskog</t>
+          <t>30-årig sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO61" t="inlineStr">
+        <is>
+          <t>fönsterlav, lingon</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>

--- a/artfynd/A 58278-2021.xlsx
+++ b/artfynd/A 58278-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80845784</v>
+        <v>7142332</v>
       </c>
       <c r="B2" t="n">
-        <v>90676</v>
+        <v>98536</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,50 +692,52 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5966</v>
+        <v>1853</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal, vid jaktskyttebanan, Hls</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>507477.0294741492</v>
+        <v>507310.5745458481</v>
       </c>
       <c r="R2" t="n">
-        <v>6894666.128927187</v>
+        <v>6894432.726952317</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -759,7 +761,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2003-05-07</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -769,7 +771,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2003-05-07</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -777,6 +779,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Vid vägen och skjutbanan. Medobservatör Per Simonsson</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -785,31 +792,26 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>35-årig sandtallskog</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Olle Hedvall</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Olle Hedvall</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80845797</v>
+        <v>61608620</v>
       </c>
       <c r="B3" t="n">
-        <v>90665</v>
+        <v>98536</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,47 +820,47 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4366</v>
+        <v>1853</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal / 700 m SV /, Hls</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>507503.1444775875</v>
+        <v>507322.104312678</v>
       </c>
       <c r="R3" t="n">
-        <v>6894699.810189986</v>
+        <v>6894076.860792432</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -885,7 +887,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-23</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -895,7 +897,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-23</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -903,6 +905,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Detalj. 30 ex inom 1,5 m2. 1 avbetad, troligen hare.</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -911,36 +918,26 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>ca 50-årig sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>gammal brink i f.d. grustag</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Hanna Wallén</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80845780</v>
+        <v>61603563</v>
       </c>
       <c r="B4" t="n">
-        <v>90634</v>
+        <v>98536</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -949,47 +946,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6055</v>
+        <v>1853</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spadskinn</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Stereopsis vitellina</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(S.Lundell) D.A.Reid</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal / 600 m SV /, Hls</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>507554.771288391</v>
+        <v>507428.3303634566</v>
       </c>
       <c r="R4" t="n">
-        <v>6894618.201644666</v>
+        <v>6894056.541744754</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,7 +1013,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1026,7 +1023,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1034,6 +1031,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Detalj. 27 ex inom 3x3 m.</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1042,36 +1044,26 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>35-årig, lavrik sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>under murken tallågerest med sorkhål</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Hanna Wallén</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80845778</v>
+        <v>61603564</v>
       </c>
       <c r="B5" t="n">
-        <v>90634</v>
+        <v>98536</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1080,47 +1072,47 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6055</v>
+        <v>1853</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spadskinn</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Stereopsis vitellina</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(S.Lundell) D.A.Reid</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal / 600 m SV /, Hls</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>507567.8244627291</v>
+        <v>507433.4911580504</v>
       </c>
       <c r="R5" t="n">
-        <v>6894636.910808607</v>
+        <v>6894049.546962359</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1147,7 +1139,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1157,7 +1149,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1165,6 +1157,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Detalj. 15 ex inom 6 m2.</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1173,36 +1170,26 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>35-årig, lavrik sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>under äldre tallåga</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Hanna Wallén</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80845735</v>
+        <v>61608619</v>
       </c>
       <c r="B6" t="n">
-        <v>90665</v>
+        <v>98536</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1211,50 +1198,50 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4366</v>
+        <v>1853</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>161</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal / 700 m SV /, Hls</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>507478.0210636117</v>
+        <v>507334.2761449886</v>
       </c>
       <c r="R6" t="n">
-        <v>6894429.824868524</v>
+        <v>6894072.216497498</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1278,7 +1265,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-23</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1288,7 +1275,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-23</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1296,6 +1283,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Detalj. 161 ex inom 1000 m2. 2 avbetade, troligen hare.</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1304,31 +1296,26 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>vägskärning med lavrik, 45-årig sandtallskog</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Hanna Wallén</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80845792</v>
+        <v>61615385</v>
       </c>
       <c r="B7" t="n">
-        <v>90665</v>
+        <v>98536</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1337,47 +1324,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>1853</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Väg 314: Fåssjödals jaktskyttebana, Hls</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>507561.1104862974</v>
+        <v>507292.8087301891</v>
       </c>
       <c r="R7" t="n">
-        <v>6894711.147330103</v>
+        <v>6894429.419321662</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1404,7 +1391,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2010-05-11</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1414,7 +1401,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2010-05-11</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1422,6 +1409,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Detalj. 5 rosetter varav 3 bl. inom 1 m2. Ny dellokal ca 15 m söder om tidigare känd.</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1430,31 +1422,26 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>tät, 40-årig sandtallskog</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Bengt Petterson, Bengt Ålkils</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>80845795</v>
+        <v>61615383</v>
       </c>
       <c r="B8" t="n">
-        <v>90653</v>
+        <v>98536</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1463,47 +1450,47 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>1853</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Väg 314: Fåssjödals jaktskyttebana, Hls</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>507589.8989173259</v>
+        <v>507306.3651785627</v>
       </c>
       <c r="R8" t="n">
-        <v>6894803.206977942</v>
+        <v>6894432.717831368</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1530,7 +1517,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2010-05-11</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1540,7 +1527,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2010-05-11</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1548,6 +1535,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Detalj. 6 rosetter varav 4 bl. inom 1 m2.</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
@@ -1556,31 +1548,26 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>40-årig sandtallskog i f.d. grustag</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Bengt Petterson, Bengt Ålkils</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80845774</v>
+        <v>71077554</v>
       </c>
       <c r="B9" t="n">
-        <v>90669</v>
+        <v>98536</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1589,50 +1576,52 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2059</v>
+        <v>1853</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Vägkant-4, Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>507643.1324513814</v>
+        <v>507250.951952296</v>
       </c>
       <c r="R9" t="n">
-        <v>6894631.943669757</v>
+        <v>6894319.109469669</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1656,22 +1645,27 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>6 plantor, varav 4 blommor. Hårt trängd av ljung, lingon, gran-och tallplant.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1682,31 +1676,26 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>35-årig sandtallskog</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>80845526</v>
+        <v>71077425</v>
       </c>
       <c r="B10" t="n">
-        <v>90639</v>
+        <v>98536</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1715,47 +1704,49 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3100</v>
+        <v>1853</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Vägkant-1, söder skjutbanan, Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>507459.7792062955</v>
+        <v>507318.9395697718</v>
       </c>
       <c r="R10" t="n">
-        <v>6894641.807051506</v>
+        <v>6894457.497286118</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1782,22 +1773,27 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>3 plantor, en med två blommor. Hårt trängd av bl.a. husmossa, ljung, lingon och tall. Beböver röjas och brännas.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1808,36 +1804,26 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>35-årig sandtallskog med lav</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>i sandväg</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80845772</v>
+        <v>71077531</v>
       </c>
       <c r="B11" t="n">
-        <v>90665</v>
+        <v>98536</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1846,50 +1832,52 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4366</v>
+        <v>1853</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Vägkant-3, Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>507661.8279765768</v>
+        <v>507265.8506841396</v>
       </c>
       <c r="R11" t="n">
-        <v>6894637.12305214</v>
+        <v>6894350.900091409</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1913,22 +1901,27 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>23 plantor, varav 6 blommande. Hårt trängd av ljung, lingon , gran- och tallplant.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1939,31 +1932,26 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>35-årig sandtallskog</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>80845730</v>
+        <v>71077497</v>
       </c>
       <c r="B12" t="n">
-        <v>90653</v>
+        <v>98536</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1972,47 +1960,49 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>1853</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Vägkant-2, söder skjutbanan, Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>507494.8668497613</v>
+        <v>507278.4196325307</v>
       </c>
       <c r="R12" t="n">
-        <v>6894426.126059267</v>
+        <v>6894378.482170939</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2039,22 +2029,27 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>4 plantor, 3 med en blomma var. Hårt trängd av överig vegetation.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2065,83 +2060,78 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>35-årig sandtallskog</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>80845781</v>
+        <v>57863956</v>
       </c>
       <c r="B13" t="n">
-        <v>88911</v>
+        <v>98536</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>256703</v>
+        <v>1853</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Väg 314: Fåssjö jaktskyttebana / S /, Hls</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>507549.1371558572</v>
+        <v>507285.8667548271</v>
       </c>
       <c r="R13" t="n">
-        <v>6894627.995988859</v>
+        <v>6894395.311347728</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2163,9 +2153,14 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Z-Här-0142</t>
+        </is>
+      </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2003-05-07</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2175,7 +2170,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2003-05-07</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2183,6 +2178,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Vid vägen och skjutbanan. Medobservatör Per Simonsson. (kopia in i floraväkteri)</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2191,85 +2191,79 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>35-årig sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>kant av sanväg, lav, väggmossa</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr"/>
+          <t>Olle Hedvall</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>80845777</v>
+        <v>504186</v>
       </c>
       <c r="B14" t="n">
-        <v>90647</v>
+        <v>98536</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4362</v>
+        <v>1853</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal / 500 m V /, Hls</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>507608.051192873</v>
+        <v>507452.7896036927</v>
       </c>
       <c r="R14" t="n">
-        <v>6894634.199334384</v>
+        <v>6894418.56041079</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2294,9 +2288,14 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Z-Här-0651</t>
+        </is>
+      </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2306,7 +2305,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2314,6 +2313,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>14 ex veg. inom 2x5 m.</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2322,36 +2326,30 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>35-årig, lavrik sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>sandväg</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Z Län Floraväktarna</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr"/>
+          <t>Hanna Wallén</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>80845779</v>
+        <v>78233133</v>
       </c>
       <c r="B15" t="n">
-        <v>90647</v>
+        <v>98536</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2360,50 +2358,57 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4362</v>
+        <v>1853</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>72</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>observerad</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjl, dödisgrop 1, Hls</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>507590.875278589</v>
+        <v>507332.8911480352</v>
       </c>
       <c r="R15" t="n">
-        <v>6894577.186568071</v>
+        <v>6894063.80614421</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2427,22 +2432,27 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Endast 1 blomma. Plantorna är hart tränga av renlavar, ljung och enbuskar. De flesta av tallplanten rycktes I fjol sommar av SCA Skog.Dödisgropen är planerad att brännas nu I sommar.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2451,38 +2461,29 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>35-årig, lavrik sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>lav, lingon, ljung</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>80845785</v>
+        <v>78233175</v>
       </c>
       <c r="B16" t="n">
-        <v>90639</v>
+        <v>98536</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2491,50 +2492,57 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3100</v>
+        <v>1853</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>observerad</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjö, Dödisgrop 2, Hls</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>507469.1038181394</v>
+        <v>507410.0928670231</v>
       </c>
       <c r="R16" t="n">
-        <v>6894654.903536456</v>
+        <v>6894054.166252391</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2558,22 +2566,27 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Ingen planta blommade. Plantorna är hart tränga av renlavar, ljung och enbuskar. De flesta av tallplanten rycktes I fjol sommar av SCA Skog.Dödisgropen är planerad att brännas nu I sommar.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2582,33 +2595,29 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>35-årig sandtallskog</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80845793</v>
+        <v>80845722</v>
       </c>
       <c r="B17" t="n">
-        <v>90676</v>
+        <v>90639</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2621,21 +2630,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5966</v>
+        <v>3100</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2654,10 +2663,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>507534.0326348151</v>
+        <v>507436.8635695092</v>
       </c>
       <c r="R17" t="n">
-        <v>6894690.072298975</v>
+        <v>6894217.230953031</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2713,12 +2722,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>40-årig, tät sandtallskog i sluttning mot dödisgrop</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>lav och lingon</t>
+          <t>tät, 25-årig, lavrik åstallskog</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2736,10 +2740,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>80845788</v>
+        <v>80845784</v>
       </c>
       <c r="B18" t="n">
-        <v>90639</v>
+        <v>90676</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2752,21 +2756,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3100</v>
+        <v>5966</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2785,10 +2789,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>507514.9611058119</v>
+        <v>507477.0294741492</v>
       </c>
       <c r="R18" t="n">
-        <v>6894643.797538802</v>
+        <v>6894666.128927187</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2845,11 +2849,6 @@
       <c r="AI18" t="inlineStr">
         <is>
           <t>35-årig sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>sandväg</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2867,10 +2866,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>80845789</v>
+        <v>80845748</v>
       </c>
       <c r="B19" t="n">
-        <v>88911</v>
+        <v>90641</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2879,25 +2878,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>256703</v>
+        <v>149</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2916,10 +2915,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>507527.8924442182</v>
+        <v>507551.0443940496</v>
       </c>
       <c r="R19" t="n">
-        <v>6894717.143831784</v>
+        <v>6893984.883687972</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2975,12 +2974,12 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>40-årig sandtallskog</t>
+          <t>35-årig, lavrik sandtallskog</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>äldre körväg med lav</t>
+          <t>sandväg</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2998,10 +2997,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>80845798</v>
+        <v>80845740</v>
       </c>
       <c r="B20" t="n">
-        <v>90641</v>
+        <v>90639</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3010,25 +3009,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>149</v>
+        <v>3100</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3047,10 +3046,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>507469.0148760626</v>
+        <v>507318.9789796181</v>
       </c>
       <c r="R20" t="n">
-        <v>6894695.064554572</v>
+        <v>6894008.193531829</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3106,12 +3105,12 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>kant av ca 60-årig sandtallskog</t>
+          <t>lavrik, 30-årig sandtallskog</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>grusig vägkant</t>
+          <t>kant av sandväg</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3129,10 +3128,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>80845775</v>
+        <v>80845797</v>
       </c>
       <c r="B21" t="n">
-        <v>90130</v>
+        <v>90665</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3141,25 +3140,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1958</v>
+        <v>4366</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lammticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Albatrellus subrubescens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Murrill) Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3178,10 +3177,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>507627.2218304575</v>
+        <v>507503.1444775875</v>
       </c>
       <c r="R21" t="n">
-        <v>6894636.110620191</v>
+        <v>6894699.810189986</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3237,12 +3236,12 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>35-årig sandtallskog</t>
+          <t>ca 50-årig sandtallskog</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>sandväg</t>
+          <t>gammal brink i f.d. grustag</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3260,10 +3259,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>80845782</v>
+        <v>80845733</v>
       </c>
       <c r="B22" t="n">
-        <v>90676</v>
+        <v>90665</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3272,25 +3271,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5966</v>
+        <v>4366</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3309,10 +3308,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>507492.8868527928</v>
+        <v>507320.2104634023</v>
       </c>
       <c r="R22" t="n">
-        <v>6894685.77773181</v>
+        <v>6894302.912628792</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3368,7 +3367,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>35-årig sandtallskog</t>
+          <t>30-årig sandtallskog</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3386,10 +3385,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>80845790</v>
+        <v>80845780</v>
       </c>
       <c r="B23" t="n">
-        <v>90669</v>
+        <v>90634</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3398,25 +3397,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2059</v>
+        <v>6055</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Spadskinn</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Stereopsis vitellina</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Lundell) D.A.Reid</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -3435,10 +3434,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>507540.9652220882</v>
+        <v>507554.771288391</v>
       </c>
       <c r="R23" t="n">
-        <v>6894726.979709957</v>
+        <v>6894618.201644666</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3494,7 +3493,12 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>40-årig sandtallskog</t>
+          <t>35-årig, lavrik sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>under murken tallågerest med sorkhål</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3512,10 +3516,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>80845525</v>
+        <v>80845778</v>
       </c>
       <c r="B24" t="n">
-        <v>90647</v>
+        <v>90634</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3524,25 +3528,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4362</v>
+        <v>6055</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Spadskinn</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Stereopsis vitellina</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Lundell) D.A.Reid</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -3561,10 +3565,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>507451.8193854644</v>
+        <v>507567.8244627291</v>
       </c>
       <c r="R24" t="n">
-        <v>6894645.992411294</v>
+        <v>6894636.910808607</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3620,12 +3624,12 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>35-årig sandtallskog</t>
+          <t>35-årig, lavrik sandtallskog</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>sandväg</t>
+          <t>under äldre tallåga</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3643,7 +3647,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>80845786</v>
+        <v>80845735</v>
       </c>
       <c r="B25" t="n">
         <v>90665</v>
@@ -3692,10 +3696,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>507485.9536536723</v>
+        <v>507478.0210636117</v>
       </c>
       <c r="R25" t="n">
-        <v>6894648.869971829</v>
+        <v>6894429.824868524</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3751,7 +3755,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>35-årig sandtallskog</t>
+          <t>vägskärning med lavrik, 45-årig sandtallskog</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3769,10 +3773,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7142332</v>
+        <v>80845792</v>
       </c>
       <c r="B26" t="n">
-        <v>98536</v>
+        <v>90665</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3781,52 +3785,50 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1853</v>
+        <v>4366</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Fåssjödal, vid jaktskyttebanan, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>507310.5745458481</v>
+        <v>507561.1104862974</v>
       </c>
       <c r="R26" t="n">
-        <v>6894432.726952317</v>
+        <v>6894711.147330103</v>
       </c>
       <c r="S26" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3850,7 +3852,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2003-05-07</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3860,7 +3862,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2003-05-07</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3868,11 +3870,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Vid vägen och skjutbanan. Medobservatör Per Simonsson</t>
-        </is>
-      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
@@ -3881,26 +3878,31 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>tät, 40-årig sandtallskog</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Olle Hedvall</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Olle Hedvall</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>61608620</v>
+        <v>80845738</v>
       </c>
       <c r="B27" t="n">
-        <v>98536</v>
+        <v>90669</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3909,47 +3911,47 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1853</v>
+        <v>2059</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Fåssjödal / 700 m SV /, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>507322.104312678</v>
+        <v>507318.9789796181</v>
       </c>
       <c r="R27" t="n">
-        <v>6894076.860792432</v>
+        <v>6894008.193531829</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3976,7 +3978,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2005-05-23</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3986,7 +3988,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2005-05-23</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3994,11 +3996,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Detalj. 30 ex inom 1,5 m2. 1 avbetad, troligen hare.</t>
-        </is>
-      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
@@ -4007,26 +4004,31 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>lavrik, 30-årig sandtallskog</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>61603563</v>
+        <v>80845737</v>
       </c>
       <c r="B28" t="n">
-        <v>98536</v>
+        <v>90676</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4035,47 +4037,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1853</v>
+        <v>5966</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Fåssjödal / 600 m SV /, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>507428.3303634566</v>
+        <v>507291.8101661553</v>
       </c>
       <c r="R28" t="n">
-        <v>6894056.541744754</v>
+        <v>6894025.883796412</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4102,7 +4104,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -4112,7 +4114,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -4120,11 +4122,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Detalj. 27 ex inom 3x3 m.</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
@@ -4133,26 +4130,31 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>lavrik, 30-årig sandtallskog</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>61603564</v>
+        <v>80845795</v>
       </c>
       <c r="B29" t="n">
-        <v>98536</v>
+        <v>90653</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4161,47 +4163,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1853</v>
+        <v>4364</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Fåssjödal / 600 m SV /, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>507433.4911580504</v>
+        <v>507589.8989173259</v>
       </c>
       <c r="R29" t="n">
-        <v>6894049.546962359</v>
+        <v>6894803.206977942</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4228,7 +4230,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4238,7 +4240,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4246,11 +4248,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Detalj. 15 ex inom 6 m2.</t>
-        </is>
-      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
@@ -4259,26 +4256,31 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>40-årig sandtallskog i f.d. grustag</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>61608619</v>
+        <v>80845774</v>
       </c>
       <c r="B30" t="n">
-        <v>98536</v>
+        <v>90669</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4287,50 +4289,50 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1853</v>
+        <v>2059</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Fåssjödal / 700 m SV /, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>507334.2761449886</v>
+        <v>507643.1324513814</v>
       </c>
       <c r="R30" t="n">
-        <v>6894072.216497498</v>
+        <v>6894631.943669757</v>
       </c>
       <c r="S30" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4354,7 +4356,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2005-05-23</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4364,7 +4366,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2005-05-23</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4372,11 +4374,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Detalj. 161 ex inom 1000 m2. 2 avbetade, troligen hare.</t>
-        </is>
-      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
@@ -4385,26 +4382,31 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>35-årig sandtallskog</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>61615385</v>
+        <v>80845742</v>
       </c>
       <c r="B31" t="n">
-        <v>98536</v>
+        <v>90639</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4413,47 +4415,47 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1853</v>
+        <v>3100</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Väg 314: Fåssjödals jaktskyttebana, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>507292.8087301891</v>
+        <v>507430.8574413726</v>
       </c>
       <c r="R31" t="n">
-        <v>6894429.419321662</v>
+        <v>6893971.071281608</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4480,7 +4482,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2010-05-11</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4490,7 +4492,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2010-05-11</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4498,11 +4500,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Detalj. 5 rosetter varav 3 bl. inom 1 m2. Ny dellokal ca 15 m söder om tidigare känd.</t>
-        </is>
-      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
@@ -4511,26 +4508,31 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>35-årig, lavrik sandtallskog</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Bengt Petterson, Bengt Ålkils</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>61615383</v>
+        <v>80845718</v>
       </c>
       <c r="B32" t="n">
-        <v>98536</v>
+        <v>90653</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4539,47 +4541,47 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1853</v>
+        <v>4364</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Väg 314: Fåssjödals jaktskyttebana, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>507306.3651785627</v>
+        <v>507454.9338275347</v>
       </c>
       <c r="R32" t="n">
-        <v>6894432.717831368</v>
+        <v>6894083.223672259</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4606,7 +4608,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2010-05-11</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4616,7 +4618,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2010-05-11</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4624,11 +4626,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Detalj. 6 rosetter varav 4 bl. inom 1 m2.</t>
-        </is>
-      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
@@ -4637,26 +4634,31 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>35-årig tallskog med lavfläckar på ryggås</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Bengt Petterson, Bengt Ålkils</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>71077554</v>
+        <v>80845714</v>
       </c>
       <c r="B33" t="n">
-        <v>98536</v>
+        <v>90647</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4665,52 +4667,50 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1853</v>
+        <v>4362</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Vägkant-4, Fåssjödal, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>507250.951952296</v>
+        <v>507198.1909204693</v>
       </c>
       <c r="R33" t="n">
-        <v>6894319.109469669</v>
+        <v>6894276.028525586</v>
       </c>
       <c r="S33" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4734,27 +4734,22 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2018-05-04</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2018-05-04</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>12:40</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>6 plantor, varav 4 blommor. Hårt trängd av ljung, lingon, gran-och tallplant.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4765,26 +4760,31 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>ca 40-årig tallskog med lav-, al- och björkinslag</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>71077425</v>
+        <v>80845736</v>
       </c>
       <c r="B34" t="n">
-        <v>98536</v>
+        <v>90676</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4793,49 +4793,47 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1853</v>
+        <v>5966</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Vägkant-1, söder skjutbanan, Fåssjödal, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>507318.9395697718</v>
+        <v>507203.9383271952</v>
       </c>
       <c r="R34" t="n">
-        <v>6894457.497286118</v>
+        <v>6894212.989029211</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4862,27 +4860,22 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2018-05-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2018-05-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>3 plantor, en med två blommor. Hårt trängd av bl.a. husmossa, ljung, lingon och tall. Beböver röjas och brännas.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4893,26 +4886,31 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>vägskärning med lavrik, 45-årig sandtallskog</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>71077531</v>
+        <v>80845526</v>
       </c>
       <c r="B35" t="n">
-        <v>98536</v>
+        <v>90639</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4921,52 +4919,50 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1853</v>
+        <v>3100</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Vägkant-3, Fåssjödal, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>507265.8506841396</v>
+        <v>507459.7792062955</v>
       </c>
       <c r="R35" t="n">
-        <v>6894350.900091409</v>
+        <v>6894641.807051506</v>
       </c>
       <c r="S35" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4990,27 +4986,22 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2018-05-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2018-05-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:40</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>23 plantor, varav 6 blommande. Hårt trängd av ljung, lingon , gran- och tallplant.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5021,26 +5012,36 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>35-årig sandtallskog med lav</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>i sandväg</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>71077497</v>
+        <v>80845732</v>
       </c>
       <c r="B36" t="n">
-        <v>98536</v>
+        <v>90647</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -5049,49 +5050,47 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1853</v>
+        <v>4362</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Vägkant-2, söder skjutbanan, Fåssjödal, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>507278.4196325307</v>
+        <v>507405.8021732038</v>
       </c>
       <c r="R36" t="n">
-        <v>6894378.482170939</v>
+        <v>6894304.033549738</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5118,27 +5117,22 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2018-05-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2018-05-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:40</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>4 plantor, 3 med en blomma var. Hårt trängd av överig vegetation.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5149,78 +5143,88 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>35-årig sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>renlav, väggmossa, lingon</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>57863956</v>
+        <v>80845772</v>
       </c>
       <c r="B37" t="n">
-        <v>98536</v>
+        <v>90665</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1853</v>
+        <v>4366</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Väg 314: Fåssjö jaktskyttebana / S /, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>507285.8667548271</v>
+        <v>507661.8279765768</v>
       </c>
       <c r="R37" t="n">
-        <v>6894395.311347728</v>
+        <v>6894637.12305214</v>
       </c>
       <c r="S37" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -5242,14 +5246,9 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>Z-Här-0142</t>
-        </is>
-      </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2003-05-07</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -5259,7 +5258,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2003-05-07</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -5267,11 +5266,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Vid vägen och skjutbanan. Medobservatör Per Simonsson. (kopia in i floraväkteri)</t>
-        </is>
-      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
@@ -5280,79 +5274,80 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>35-årig sandtallskog</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Olle Hedvall</t>
-        </is>
-      </c>
-      <c r="AY37" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>504186</v>
+        <v>80845730</v>
       </c>
       <c r="B38" t="n">
-        <v>98536</v>
+        <v>90653</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1853</v>
+        <v>4364</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Fåssjödal / 500 m V /, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>507452.7896036927</v>
+        <v>507494.8668497613</v>
       </c>
       <c r="R38" t="n">
-        <v>6894418.56041079</v>
+        <v>6894426.126059267</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5377,14 +5372,9 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>Z-Här-0651</t>
-        </is>
-      </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -5394,7 +5384,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -5402,11 +5392,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>14 ex veg. inom 2x5 m.</t>
-        </is>
-      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
@@ -5415,30 +5400,31 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>35-årig sandtallskog</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Z Län Floraväktarna</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
-        </is>
-      </c>
-      <c r="AY38" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>78233133</v>
+        <v>80845745</v>
       </c>
       <c r="B39" t="n">
-        <v>98536</v>
+        <v>90639</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5447,57 +5433,50 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1853</v>
+        <v>3100</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>observerad</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Fåssjl, dödisgrop 1, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>507332.8911480352</v>
+        <v>507512.227838248</v>
       </c>
       <c r="R39" t="n">
-        <v>6894063.80614421</v>
+        <v>6893981.06033429</v>
       </c>
       <c r="S39" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5521,27 +5500,22 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Endast 1 blomma. Plantorna är hart tränga av renlavar, ljung och enbuskar. De flesta av tallplanten rycktes I fjol sommar av SCA Skog.Dödisgropen är planerad att brännas nu I sommar.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5550,29 +5524,33 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>35-årig, lavrik sandtallskog</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>78233175</v>
+        <v>80845781</v>
       </c>
       <c r="B40" t="n">
-        <v>98536</v>
+        <v>88911</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5581,57 +5559,50 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1853</v>
+        <v>256703</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>observerad</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Fåssjö, Dödisgrop 2, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>507410.0928670231</v>
+        <v>507549.1371558572</v>
       </c>
       <c r="R40" t="n">
-        <v>6894054.166252391</v>
+        <v>6894627.995988859</v>
       </c>
       <c r="S40" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5655,27 +5626,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Ingen planta blommade. Plantorna är hart tränga av renlavar, ljung och enbuskar. De flesta av tallplanten rycktes I fjol sommar av SCA Skog.Dödisgropen är planerad att brännas nu I sommar.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5684,29 +5650,38 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>35-årig sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>kant av sanväg, lav, väggmossa</t>
+        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>80845722</v>
+        <v>80845777</v>
       </c>
       <c r="B41" t="n">
-        <v>90639</v>
+        <v>90647</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5719,21 +5694,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -5752,10 +5727,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>507436.8635695092</v>
+        <v>507608.051192873</v>
       </c>
       <c r="R41" t="n">
-        <v>6894217.230953031</v>
+        <v>6894634.199334384</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5811,7 +5786,12 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>tät, 25-årig, lavrik åstallskog</t>
+          <t>35-årig, lavrik sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>sandväg</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5829,10 +5809,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>80845748</v>
+        <v>80845779</v>
       </c>
       <c r="B42" t="n">
-        <v>90641</v>
+        <v>90647</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5841,25 +5821,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>149</v>
+        <v>4362</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -5878,10 +5858,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>507551.0443940496</v>
+        <v>507590.875278589</v>
       </c>
       <c r="R42" t="n">
-        <v>6893984.883687972</v>
+        <v>6894577.186568071</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5942,7 +5922,7 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>sandväg</t>
+          <t>lav, lingon, ljung</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5960,7 +5940,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>80845740</v>
+        <v>80845785</v>
       </c>
       <c r="B43" t="n">
         <v>90639</v>
@@ -6009,10 +5989,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>507318.9789796181</v>
+        <v>507469.1038181394</v>
       </c>
       <c r="R43" t="n">
-        <v>6894008.193531829</v>
+        <v>6894654.903536456</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6068,12 +6048,7 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>lavrik, 30-årig sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>kant av sandväg</t>
+          <t>35-årig sandtallskog</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6091,10 +6066,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>80845733</v>
+        <v>80845747</v>
       </c>
       <c r="B44" t="n">
-        <v>90665</v>
+        <v>90647</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -6103,25 +6078,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -6140,10 +6115,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>507320.2104634023</v>
+        <v>507542.1651258843</v>
       </c>
       <c r="R44" t="n">
-        <v>6894302.912628792</v>
+        <v>6893981.127133002</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6199,7 +6174,7 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>30-årig sandtallskog</t>
+          <t>35-årig, lavrik sandtallskog</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6217,10 +6192,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>80845738</v>
+        <v>80845793</v>
       </c>
       <c r="B45" t="n">
-        <v>90669</v>
+        <v>90676</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6233,21 +6208,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2059</v>
+        <v>5966</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -6266,10 +6241,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>507318.9789796181</v>
+        <v>507534.0326348151</v>
       </c>
       <c r="R45" t="n">
-        <v>6894008.193531829</v>
+        <v>6894690.072298975</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6325,7 +6300,12 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>lavrik, 30-årig sandtallskog</t>
+          <t>40-årig, tät sandtallskog i sluttning mot dödisgrop</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>lav och lingon</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6343,10 +6323,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>80845737</v>
+        <v>80845752</v>
       </c>
       <c r="B46" t="n">
-        <v>90676</v>
+        <v>90639</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6359,21 +6339,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5966</v>
+        <v>3100</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -6392,10 +6372,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>507291.8101661553</v>
+        <v>507623.0154712492</v>
       </c>
       <c r="R46" t="n">
-        <v>6894025.883796412</v>
+        <v>6894014.004775294</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6451,7 +6431,7 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>lavrik, 30-årig sandtallskog</t>
+          <t>30-årig lingontallskog i åssluttning</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6469,10 +6449,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>80845742</v>
+        <v>80845744</v>
       </c>
       <c r="B47" t="n">
-        <v>90639</v>
+        <v>90665</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6481,25 +6461,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3100</v>
+        <v>4366</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -6518,10 +6498,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>507430.8574413726</v>
+        <v>507493.9910289954</v>
       </c>
       <c r="R47" t="n">
-        <v>6893971.071281608</v>
+        <v>6893978.217251596</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6595,7 +6575,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>80845718</v>
+        <v>80845720</v>
       </c>
       <c r="B48" t="n">
         <v>90653</v>
@@ -6644,10 +6624,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>507454.9338275347</v>
+        <v>507402.2100072518</v>
       </c>
       <c r="R48" t="n">
-        <v>6894083.223672259</v>
+        <v>6894235.836839776</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6674,7 +6654,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -6684,7 +6664,7 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -6703,7 +6683,12 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>35-årig tallskog med lavfläckar på ryggås</t>
+          <t>35-årig sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>vägkant</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6721,10 +6706,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>80845714</v>
+        <v>80845788</v>
       </c>
       <c r="B49" t="n">
-        <v>90647</v>
+        <v>90639</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6737,21 +6722,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -6770,10 +6755,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>507198.1909204693</v>
+        <v>507514.9611058119</v>
       </c>
       <c r="R49" t="n">
-        <v>6894276.028525586</v>
+        <v>6894643.797538802</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6800,7 +6785,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -6810,7 +6795,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -6829,7 +6814,12 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>ca 40-årig tallskog med lav-, al- och björkinslag</t>
+          <t>35-årig sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>sandväg</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6847,10 +6837,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>80845736</v>
+        <v>80845789</v>
       </c>
       <c r="B50" t="n">
-        <v>90676</v>
+        <v>88911</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6859,25 +6849,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5966</v>
+        <v>256703</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6896,10 +6886,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>507203.9383271952</v>
+        <v>507527.8924442182</v>
       </c>
       <c r="R50" t="n">
-        <v>6894212.989029211</v>
+        <v>6894717.143831784</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6955,7 +6945,12 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>vägskärning med lavrik, 45-årig sandtallskog</t>
+          <t>40-årig sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>äldre körväg med lav</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6973,10 +6968,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>80845732</v>
+        <v>80845798</v>
       </c>
       <c r="B51" t="n">
-        <v>90647</v>
+        <v>90641</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6985,25 +6980,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4362</v>
+        <v>149</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -7022,10 +7017,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>507405.8021732038</v>
+        <v>507469.0148760626</v>
       </c>
       <c r="R51" t="n">
-        <v>6894304.033549738</v>
+        <v>6894695.064554572</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -7081,12 +7076,12 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>35-årig sandtallskog</t>
+          <t>kant av ca 60-årig sandtallskog</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>renlav, väggmossa, lingon</t>
+          <t>grusig vägkant</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -7104,10 +7099,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>80845745</v>
+        <v>80845717</v>
       </c>
       <c r="B52" t="n">
-        <v>90639</v>
+        <v>90676</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -7120,21 +7115,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3100</v>
+        <v>5966</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -7153,10 +7148,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>507512.227838248</v>
+        <v>507249.1101581561</v>
       </c>
       <c r="R52" t="n">
-        <v>6893981.06033429</v>
+        <v>6894087.912884205</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -7183,7 +7178,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -7193,7 +7188,7 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -7212,7 +7207,12 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>35-årig, lavrik sandtallskog</t>
+          <t>35-årig sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>sandvägskant</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -7230,10 +7230,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>80845747</v>
+        <v>80845775</v>
       </c>
       <c r="B53" t="n">
-        <v>90647</v>
+        <v>90130</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -7242,25 +7242,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4362</v>
+        <v>1958</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Lammticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Albatrellus subrubescens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Murrill) Pouzar</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -7279,10 +7279,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>507542.1651258843</v>
+        <v>507627.2218304575</v>
       </c>
       <c r="R53" t="n">
-        <v>6893981.127133002</v>
+        <v>6894636.110620191</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -7338,7 +7338,12 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>35-årig, lavrik sandtallskog</t>
+          <t>35-årig sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>sandväg</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -7356,10 +7361,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>80845752</v>
+        <v>80845731</v>
       </c>
       <c r="B54" t="n">
-        <v>90639</v>
+        <v>90665</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -7368,25 +7373,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3100</v>
+        <v>4366</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -7405,10 +7410,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>507623.0154712492</v>
+        <v>507509.9208651773</v>
       </c>
       <c r="R54" t="n">
-        <v>6894014.004775294</v>
+        <v>6894386.929195298</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7464,7 +7469,7 @@
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>30-årig lingontallskog i åssluttning</t>
+          <t>35-årig sandtallskog</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -7482,10 +7487,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>80845744</v>
+        <v>80845746</v>
       </c>
       <c r="B55" t="n">
-        <v>90665</v>
+        <v>90669</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7494,25 +7499,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -7531,10 +7536,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>507493.9910289954</v>
+        <v>507551.0443940496</v>
       </c>
       <c r="R55" t="n">
-        <v>6893978.217251596</v>
+        <v>6893984.883687972</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7608,10 +7613,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>80845720</v>
+        <v>80845782</v>
       </c>
       <c r="B56" t="n">
-        <v>90653</v>
+        <v>90676</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7620,25 +7625,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -7657,10 +7662,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>507402.2100072518</v>
+        <v>507492.8868527928</v>
       </c>
       <c r="R56" t="n">
-        <v>6894235.836839776</v>
+        <v>6894685.77773181</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7717,11 +7722,6 @@
       <c r="AI56" t="inlineStr">
         <is>
           <t>35-årig sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO56" t="inlineStr">
-        <is>
-          <t>vägkant</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7739,10 +7739,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>80845717</v>
+        <v>80845751</v>
       </c>
       <c r="B57" t="n">
-        <v>90676</v>
+        <v>90653</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7751,25 +7751,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -7788,10 +7788,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>507249.1101581561</v>
+        <v>507623.0154712492</v>
       </c>
       <c r="R57" t="n">
-        <v>6894087.912884205</v>
+        <v>6894014.004775294</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -7847,12 +7847,7 @@
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>35-årig sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO57" t="inlineStr">
-        <is>
-          <t>sandvägskant</t>
+          <t>30-årig lingontallskog i åssluttning</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7870,10 +7865,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>80845731</v>
+        <v>80845790</v>
       </c>
       <c r="B58" t="n">
-        <v>90665</v>
+        <v>90669</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7882,25 +7877,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -7919,10 +7914,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>507509.9208651773</v>
+        <v>507540.9652220882</v>
       </c>
       <c r="R58" t="n">
-        <v>6894386.929195298</v>
+        <v>6894726.979709957</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7978,7 +7973,7 @@
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>35-årig sandtallskog</t>
+          <t>40-årig sandtallskog</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -7996,10 +7991,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>80845746</v>
+        <v>80845734</v>
       </c>
       <c r="B59" t="n">
-        <v>90669</v>
+        <v>90647</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -8012,21 +8007,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -8045,10 +8040,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>507551.0443940496</v>
+        <v>507335.1451781774</v>
       </c>
       <c r="R59" t="n">
-        <v>6893984.883687972</v>
+        <v>6894317.890388673</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -8104,7 +8099,12 @@
       </c>
       <c r="AI59" t="inlineStr">
         <is>
-          <t>35-årig, lavrik sandtallskog</t>
+          <t>30-årig sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO59" t="inlineStr">
+        <is>
+          <t>fönsterlav, lingon</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -8122,10 +8122,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>80845751</v>
+        <v>80845525</v>
       </c>
       <c r="B60" t="n">
-        <v>90653</v>
+        <v>90647</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -8134,25 +8134,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -8171,10 +8171,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>507623.0154712492</v>
+        <v>507451.8193854644</v>
       </c>
       <c r="R60" t="n">
-        <v>6894014.004775294</v>
+        <v>6894645.992411294</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -8230,7 +8230,12 @@
       </c>
       <c r="AI60" t="inlineStr">
         <is>
-          <t>30-årig lingontallskog i åssluttning</t>
+          <t>35-årig sandtallskog</t>
+        </is>
+      </c>
+      <c r="AO60" t="inlineStr">
+        <is>
+          <t>sandväg</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -8248,10 +8253,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>80845734</v>
+        <v>80845786</v>
       </c>
       <c r="B61" t="n">
-        <v>90647</v>
+        <v>90665</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -8260,25 +8265,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -8297,10 +8302,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>507335.1451781774</v>
+        <v>507485.9536536723</v>
       </c>
       <c r="R61" t="n">
-        <v>6894317.890388673</v>
+        <v>6894648.869971829</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -8356,12 +8361,7 @@
       </c>
       <c r="AI61" t="inlineStr">
         <is>
-          <t>30-årig sandtallskog</t>
-        </is>
-      </c>
-      <c r="AO61" t="inlineStr">
-        <is>
-          <t>fönsterlav, lingon</t>
+          <t>35-årig sandtallskog</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>
